--- a/src/component/education/data/courses_20182_1905_duplicate_record.xlsx
+++ b/src/component/education/data/courses_20182_1905_duplicate_record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8333405F-DB92-4EC5-9C6D-5B500385F62C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28543907-EE6B-4613-AFA8-CE2BF093C069}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2882,5197 +2882,5197 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C471"/>
+  <dimension ref="AH4:AJ474"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C19"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6:AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="36.5703125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="54.85546875" customWidth="1"/>
+    <col min="36" max="36" width="27.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="4" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH4" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="B1" t="s">
+      <c r="AI4" t="s">
         <v>838</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH5" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="AI5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH6" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="AI6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH7" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="AI7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH8" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="AI8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="AI9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="AI10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="AI11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="AJ11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="AI12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="AJ12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="AI13" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="AJ13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="AI14" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="AJ14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="AI15" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="AJ15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="AI16" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="AJ16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="AI17" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="AJ17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="AI18" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="AJ18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="AI19" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="AJ19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="AI20" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="AJ20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="AI21" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="AJ21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="AI22" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="AJ22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+      <c r="AI23" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="AJ23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
+      <c r="AI24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="AJ24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
+      <c r="AI25" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="AJ25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="s">
+      <c r="AI26" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="AJ26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
+      <c r="AI27" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="AJ27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B25" t="s">
+      <c r="AI28" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="AJ28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B26" t="s">
+      <c r="AI29" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="AJ29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B27" t="s">
+      <c r="AI30" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="AJ30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B28" t="s">
+      <c r="AI31" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="AJ31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B29" t="s">
+      <c r="AI32" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="AJ32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B30" t="s">
+      <c r="AI33" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="AJ33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B31" t="s">
+      <c r="AI34" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="AJ34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B32" t="s">
+      <c r="AI35" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="AJ35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B33" t="s">
+      <c r="AI36" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="AJ36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B34" t="s">
+      <c r="AI37" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="AJ37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B35" t="s">
+      <c r="AI38" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="AJ38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B36" t="s">
+      <c r="AI39" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="AJ39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B37" t="s">
+      <c r="AI40" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="AJ40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B38" t="s">
+      <c r="AI41" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="AJ41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B39" t="s">
+      <c r="AI42" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="AJ42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B40" t="s">
+      <c r="AI43" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="AJ43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B41" t="s">
+      <c r="AI44" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="AJ44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH45" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B42" t="s">
+      <c r="AI45" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="AJ45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B43" t="s">
+      <c r="AI46" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="AJ46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B44" t="s">
+      <c r="AI47" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="AJ47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH48" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B45" t="s">
+      <c r="AI48" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="AJ48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH49" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B46" t="s">
+      <c r="AI49" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="AJ49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH50" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B47" t="s">
+      <c r="AI50" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="AJ50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH51" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B48" t="s">
+      <c r="AI51" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="AJ51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH52" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B49" t="s">
+      <c r="AI52" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="AJ52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B50" t="s">
+      <c r="AI53" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="AJ53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B51" t="s">
+      <c r="AI54" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="AJ54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH55" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B52" t="s">
+      <c r="AI55" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="AJ55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH56" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B53" t="s">
+      <c r="AI56" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="AJ56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH57" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B54" t="s">
+      <c r="AI57" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="AJ57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH58" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B55" t="s">
+      <c r="AI58" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="AJ58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH59" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B56" t="s">
+      <c r="AI59" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="AJ59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH60" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B57" t="s">
+      <c r="AI60" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="AJ60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH61" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B58" t="s">
+      <c r="AI61" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="AJ61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH62" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B59" t="s">
+      <c r="AI62" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="AJ62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH63" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B60" t="s">
+      <c r="AI63" t="s">
         <v>87</v>
       </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="AJ63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH64" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B61" t="s">
+      <c r="AI64" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="AJ64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH65" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B62" t="s">
+      <c r="AI65" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="AJ65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH66" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B63" t="s">
+      <c r="AI66" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="AJ66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH67" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B64" t="s">
+      <c r="AI67" t="s">
         <v>95</v>
       </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="AJ67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH68" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B65" t="s">
+      <c r="AI68" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="AJ68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH69" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B66" t="s">
+      <c r="AI69" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="AJ69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH70" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B67" t="s">
+      <c r="AI70" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="AJ70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH71" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B68" t="s">
+      <c r="AI71" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="AJ71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH72" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B69" t="s">
+      <c r="AI72" t="s">
         <v>104</v>
       </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="AJ72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH73" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B70" t="s">
+      <c r="AI73" t="s">
         <v>106</v>
       </c>
-      <c r="C70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="AJ73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH74" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B71" t="s">
+      <c r="AI74" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="AJ74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH75" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B72" t="s">
+      <c r="AI75" t="s">
         <v>110</v>
       </c>
-      <c r="C72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="AJ75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH76" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B73" t="s">
+      <c r="AI76" t="s">
         <v>112</v>
       </c>
-      <c r="C73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="AJ76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH77" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B74" t="s">
+      <c r="AI77" t="s">
         <v>114</v>
       </c>
-      <c r="C74" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="AJ77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH78" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B75" t="s">
+      <c r="AI78" t="s">
         <v>116</v>
       </c>
-      <c r="C75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="AJ78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH79" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B76" t="s">
+      <c r="AI79" t="s">
         <v>118</v>
       </c>
-      <c r="C76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="AJ79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH80" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B77" t="s">
+      <c r="AI80" t="s">
         <v>120</v>
       </c>
-      <c r="C77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="AJ80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH81" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B78" t="s">
+      <c r="AI81" t="s">
         <v>122</v>
       </c>
-      <c r="C78" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="AJ81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH82" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B79" t="s">
+      <c r="AI82" t="s">
         <v>124</v>
       </c>
-      <c r="C79" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="AJ82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH83" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B80" t="s">
+      <c r="AI83" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="AJ83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH84" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B81" t="s">
+      <c r="AI84" t="s">
         <v>29</v>
       </c>
-      <c r="C81" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="AJ84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH85" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B82" t="s">
+      <c r="AI85" t="s">
         <v>129</v>
       </c>
-      <c r="C82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="AJ85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH86" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B83" t="s">
+      <c r="AI86" t="s">
         <v>131</v>
       </c>
-      <c r="C83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="AJ86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH87" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B84" t="s">
+      <c r="AI87" t="s">
         <v>133</v>
       </c>
-      <c r="C84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="AJ87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH88" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B85" t="s">
+      <c r="AI88" t="s">
         <v>65</v>
       </c>
-      <c r="C85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="AJ88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH89" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B86" t="s">
+      <c r="AI89" t="s">
         <v>136</v>
       </c>
-      <c r="C86" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="AJ89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH90" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B87" t="s">
+      <c r="AI90" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="AJ90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH91" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B88" t="s">
+      <c r="AI91" t="s">
         <v>139</v>
       </c>
-      <c r="C88" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="AJ91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH92" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B89" t="s">
+      <c r="AI92" t="s">
         <v>141</v>
       </c>
-      <c r="C89" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="AJ92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH93" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B90" t="s">
+      <c r="AI93" t="s">
         <v>143</v>
       </c>
-      <c r="C90" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="AJ93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH94" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B91" t="s">
+      <c r="AI94" t="s">
         <v>145</v>
       </c>
-      <c r="C91" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="AJ94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH95" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B92" t="s">
+      <c r="AI95" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="AJ95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH96" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B93" t="s">
+      <c r="AI96" t="s">
         <v>149</v>
       </c>
-      <c r="C93" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="AJ96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH97" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B94" t="s">
+      <c r="AI97" t="s">
         <v>151</v>
       </c>
-      <c r="C94" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="AJ97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH98" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B95" t="s">
+      <c r="AI98" t="s">
         <v>153</v>
       </c>
-      <c r="C95" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="AJ98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH99" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B96" t="s">
+      <c r="AI99" t="s">
         <v>35</v>
       </c>
-      <c r="C96" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="AJ99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH100" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B97" t="s">
+      <c r="AI100" t="s">
         <v>65</v>
       </c>
-      <c r="C97" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="AJ100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH101" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B98" t="s">
+      <c r="AI101" t="s">
         <v>70</v>
       </c>
-      <c r="C98" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="AJ101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH102" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B99" t="s">
+      <c r="AI102" t="s">
         <v>85</v>
       </c>
-      <c r="C99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="AJ102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH103" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B100" t="s">
+      <c r="AI103" t="s">
         <v>159</v>
       </c>
-      <c r="C100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="AJ103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH104" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B101" t="s">
+      <c r="AI104" t="s">
         <v>161</v>
       </c>
-      <c r="C101" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="AJ104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH105" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B102" t="s">
+      <c r="AI105" t="s">
         <v>163</v>
       </c>
-      <c r="C102" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="AJ105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH106" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B103" t="s">
+      <c r="AI106" t="s">
         <v>165</v>
       </c>
-      <c r="C103" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="AJ106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH107" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B104" t="s">
+      <c r="AI107" t="s">
         <v>167</v>
       </c>
-      <c r="C104" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="AJ107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH108" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B105" t="s">
+      <c r="AI108" t="s">
         <v>169</v>
       </c>
-      <c r="C105" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="AJ108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH109" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B106" t="s">
+      <c r="AI109" t="s">
         <v>171</v>
       </c>
-      <c r="C106" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="AJ109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH110" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B107" t="s">
+      <c r="AI110" t="s">
         <v>173</v>
       </c>
-      <c r="C107" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="AJ110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH111" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B108" t="s">
+      <c r="AI111" t="s">
         <v>175</v>
       </c>
-      <c r="C108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="AJ111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH112" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B109" t="s">
+      <c r="AI112" t="s">
         <v>177</v>
       </c>
-      <c r="C109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="AJ112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH113" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B110" t="s">
+      <c r="AI113" t="s">
         <v>179</v>
       </c>
-      <c r="C110" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="AJ113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH114" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B111" t="s">
+      <c r="AI114" t="s">
         <v>181</v>
       </c>
-      <c r="C111" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="AJ114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH115" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B112" t="s">
+      <c r="AI115" t="s">
         <v>183</v>
       </c>
-      <c r="C112" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="AJ115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH116" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B113" t="s">
+      <c r="AI116" t="s">
         <v>185</v>
       </c>
-      <c r="C113" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="AJ116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH117" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B114" t="s">
+      <c r="AI117" t="s">
         <v>187</v>
       </c>
-      <c r="C114" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="AJ117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH118" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B115" t="s">
+      <c r="AI118" t="s">
         <v>189</v>
       </c>
-      <c r="C115" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="AJ118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH119" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B116" t="s">
+      <c r="AI119" t="s">
         <v>191</v>
       </c>
-      <c r="C116" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="AJ119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH120" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B117" t="s">
+      <c r="AI120" t="s">
         <v>193</v>
       </c>
-      <c r="C117" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="AJ120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH121" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B118" t="s">
+      <c r="AI121" t="s">
         <v>195</v>
       </c>
-      <c r="C118" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="AJ121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH122" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B119" t="s">
+      <c r="AI122" t="s">
         <v>195</v>
       </c>
-      <c r="C119" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="AJ122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH123" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B120" t="s">
+      <c r="AI123" t="s">
         <v>195</v>
       </c>
-      <c r="C120" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="AJ123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH124" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B121" t="s">
+      <c r="AI124" t="s">
         <v>199</v>
       </c>
-      <c r="C121" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="AJ124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH125" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B122" t="s">
+      <c r="AI125" t="s">
         <v>195</v>
       </c>
-      <c r="C122" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="AJ125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH126" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B123" t="s">
+      <c r="AI126" t="s">
         <v>202</v>
       </c>
-      <c r="C123" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="AJ126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH127" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B124" t="s">
+      <c r="AI127" t="s">
         <v>204</v>
       </c>
-      <c r="C124" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="AJ127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH128" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B125" t="s">
+      <c r="AI128" t="s">
         <v>206</v>
       </c>
-      <c r="C125" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="AJ128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH129" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B126" t="s">
+      <c r="AI129" t="s">
         <v>206</v>
       </c>
-      <c r="C126" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="AJ129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH130" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B127" t="s">
+      <c r="AI130" t="s">
         <v>209</v>
       </c>
-      <c r="C127" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="AJ130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH131" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B128" t="s">
+      <c r="AI131" t="s">
         <v>211</v>
       </c>
-      <c r="C128" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="AJ131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH132" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B129" t="s">
+      <c r="AI132" t="s">
         <v>206</v>
       </c>
-      <c r="C129" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="AJ132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH133" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B130" t="s">
+      <c r="AI133" t="s">
         <v>214</v>
       </c>
-      <c r="C130" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="AJ133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH134" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B131" t="s">
+      <c r="AI134" t="s">
         <v>216</v>
       </c>
-      <c r="C131" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="AJ134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH135" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B132" t="s">
+      <c r="AI135" t="s">
         <v>216</v>
       </c>
-      <c r="C132" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="AJ135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH136" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B133" t="s">
+      <c r="AI136" t="s">
         <v>97</v>
       </c>
-      <c r="C133" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="AJ136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH137" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B134" t="s">
+      <c r="AI137" t="s">
         <v>97</v>
       </c>
-      <c r="C134" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="AJ137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH138" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B135" t="s">
+      <c r="AI138" t="s">
         <v>221</v>
       </c>
-      <c r="C135" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="AJ138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH139" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B136" t="s">
+      <c r="AI139" t="s">
         <v>223</v>
       </c>
-      <c r="C136" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="AJ139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH140" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B137" t="s">
+      <c r="AI140" t="s">
         <v>97</v>
       </c>
-      <c r="C137" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="AJ140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH141" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B138" t="s">
+      <c r="AI141" t="s">
         <v>226</v>
       </c>
-      <c r="C138" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="AJ141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH142" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B139" t="s">
+      <c r="AI142" t="s">
         <v>226</v>
       </c>
-      <c r="C139" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="AJ142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH143" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B140" t="s">
+      <c r="AI143" t="s">
         <v>229</v>
       </c>
-      <c r="C140" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="AJ143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH144" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B141" t="s">
+      <c r="AI144" t="s">
         <v>226</v>
       </c>
-      <c r="C141" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="AJ144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH145" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B142" t="s">
+      <c r="AI145" t="s">
         <v>232</v>
       </c>
-      <c r="C142" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="AJ145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH146" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B143" t="s">
+      <c r="AI146" t="s">
         <v>234</v>
       </c>
-      <c r="C143" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="AJ146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH147" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B144" t="s">
+      <c r="AI147" t="s">
         <v>236</v>
       </c>
-      <c r="C144" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="AJ147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH148" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B145" t="s">
+      <c r="AI148" t="s">
         <v>236</v>
       </c>
-      <c r="C145" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="AJ148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH149" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B146" t="s">
+      <c r="AI149" t="s">
         <v>239</v>
       </c>
-      <c r="C146" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="AJ149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH150" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B147" t="s">
+      <c r="AI150" t="s">
         <v>239</v>
       </c>
-      <c r="C147" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="AJ150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH151" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B148" t="s">
+      <c r="AI151" t="s">
         <v>242</v>
       </c>
-      <c r="C148" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="AJ151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH152" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B149" t="s">
+      <c r="AI152" t="s">
         <v>244</v>
       </c>
-      <c r="C149" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="AJ152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH153" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B150" t="s">
+      <c r="AI153" t="s">
         <v>246</v>
       </c>
-      <c r="C150" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="AJ153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH154" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B151" t="s">
+      <c r="AI154" t="s">
         <v>248</v>
       </c>
-      <c r="C151" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="AJ154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH155" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B152" t="s">
+      <c r="AI155" t="s">
         <v>250</v>
       </c>
-      <c r="C152" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="AJ155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH156" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B153" t="s">
+      <c r="AI156" t="s">
         <v>252</v>
       </c>
-      <c r="C153" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="AJ156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH157" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B154" t="s">
+      <c r="AI157" t="s">
         <v>254</v>
       </c>
-      <c r="C154" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="AJ157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH158" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B155" t="s">
+      <c r="AI158" t="s">
         <v>256</v>
       </c>
-      <c r="C155" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="AJ158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH159" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B156" t="s">
+      <c r="AI159" t="s">
         <v>258</v>
       </c>
-      <c r="C156" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="AJ159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH160" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B157" t="s">
+      <c r="AI160" t="s">
         <v>258</v>
       </c>
-      <c r="C157" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="AJ160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH161" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B158" t="s">
+      <c r="AI161" t="s">
         <v>261</v>
       </c>
-      <c r="C158" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="AJ161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH162" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B159" t="s">
+      <c r="AI162" t="s">
         <v>263</v>
       </c>
-      <c r="C159" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="AJ162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH163" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B160" t="s">
+      <c r="AI163" t="s">
         <v>261</v>
       </c>
-      <c r="C160" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="AJ163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH164" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B161" t="s">
+      <c r="AI164" t="s">
         <v>266</v>
       </c>
-      <c r="C161" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="AJ164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH165" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B162" t="s">
+      <c r="AI165" t="s">
         <v>268</v>
       </c>
-      <c r="C162" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="AJ165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH166" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B163" t="s">
+      <c r="AI166" t="s">
         <v>270</v>
       </c>
-      <c r="C163" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="AJ166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH167" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B164" t="s">
+      <c r="AI167" t="s">
         <v>272</v>
       </c>
-      <c r="C164" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="AJ167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH168" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B165" t="s">
+      <c r="AI168" t="s">
         <v>274</v>
       </c>
-      <c r="C165" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="AJ168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH169" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B166" t="s">
+      <c r="AI169" t="s">
         <v>276</v>
       </c>
-      <c r="C166" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+      <c r="AJ169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH170" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B167" t="s">
+      <c r="AI170" t="s">
         <v>278</v>
       </c>
-      <c r="C167" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="AJ170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH171" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B168" t="s">
+      <c r="AI171" t="s">
         <v>280</v>
       </c>
-      <c r="C168" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="AJ171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH172" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B169" t="s">
+      <c r="AI172" t="s">
         <v>282</v>
       </c>
-      <c r="C169" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="AJ172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH173" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B170" t="s">
+      <c r="AI173" t="s">
         <v>284</v>
       </c>
-      <c r="C170" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="AJ173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH174" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B171" t="s">
+      <c r="AI174" t="s">
         <v>284</v>
       </c>
-      <c r="C171" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="AJ174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH175" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B172" t="s">
+      <c r="AI175" t="s">
         <v>287</v>
       </c>
-      <c r="C172" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="AJ175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH176" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B173" t="s">
+      <c r="AI176" t="s">
         <v>289</v>
       </c>
-      <c r="C173" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+      <c r="AJ176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH177" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B174" t="s">
+      <c r="AI177" t="s">
         <v>291</v>
       </c>
-      <c r="C174" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+      <c r="AJ177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH178" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B175" t="s">
+      <c r="AI178" t="s">
         <v>291</v>
       </c>
-      <c r="C175" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="AJ178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH179" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B176" t="s">
+      <c r="AI179" t="s">
         <v>291</v>
       </c>
-      <c r="C176" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+      <c r="AJ179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH180" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B177" t="s">
+      <c r="AI180" t="s">
         <v>295</v>
       </c>
-      <c r="C177" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+      <c r="AJ180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH181" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B178" t="s">
+      <c r="AI181" t="s">
         <v>297</v>
       </c>
-      <c r="C178" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+      <c r="AJ181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH182" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B179" t="s">
+      <c r="AI182" t="s">
         <v>291</v>
       </c>
-      <c r="C179" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+      <c r="AJ182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH183" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B180" t="s">
+      <c r="AI183" t="s">
         <v>300</v>
       </c>
-      <c r="C180" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="AJ183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH184" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B181" t="s">
+      <c r="AI184" t="s">
         <v>302</v>
       </c>
-      <c r="C181" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="AJ184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH185" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B182" t="s">
+      <c r="AI185" t="s">
         <v>304</v>
       </c>
-      <c r="C182" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+      <c r="AJ185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH186" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B183" t="s">
+      <c r="AI186" t="s">
         <v>306</v>
       </c>
-      <c r="C183" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+      <c r="AJ186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH187" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B184" t="s">
+      <c r="AI187" t="s">
         <v>183</v>
       </c>
-      <c r="C184" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="AJ187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH188" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B185" t="s">
+      <c r="AI188" t="s">
         <v>309</v>
       </c>
-      <c r="C185" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="AJ188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH189" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B186" t="s">
+      <c r="AI189" t="s">
         <v>311</v>
       </c>
-      <c r="C186" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="AJ189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH190" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B187" t="s">
+      <c r="AI190" t="s">
         <v>313</v>
       </c>
-      <c r="C187" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+      <c r="AJ190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH191" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B188" t="s">
+      <c r="AI191" t="s">
         <v>315</v>
       </c>
-      <c r="C188" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+      <c r="AJ191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH192" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B189" t="s">
+      <c r="AI192" t="s">
         <v>315</v>
       </c>
-      <c r="C189" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+      <c r="AJ192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH193" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B190" t="s">
+      <c r="AI193" t="s">
         <v>318</v>
       </c>
-      <c r="C190" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+      <c r="AJ193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH194" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B191" t="s">
+      <c r="AI194" t="s">
         <v>318</v>
       </c>
-      <c r="C191" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+      <c r="AJ194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH195" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B192" t="s">
+      <c r="AI195" t="s">
         <v>318</v>
       </c>
-      <c r="C192" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+      <c r="AJ195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH196" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B193" t="s">
+      <c r="AI196" t="s">
         <v>322</v>
       </c>
-      <c r="C193" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+      <c r="AJ196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH197" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B194" t="s">
+      <c r="AI197" t="s">
         <v>324</v>
       </c>
-      <c r="C194" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+      <c r="AJ197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH198" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B195" t="s">
+      <c r="AI198" t="s">
         <v>324</v>
       </c>
-      <c r="C195" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+      <c r="AJ198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH199" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B196" t="s">
+      <c r="AI199" t="s">
         <v>327</v>
       </c>
-      <c r="C196" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+      <c r="AJ199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH200" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B197" t="s">
+      <c r="AI200" t="s">
         <v>329</v>
       </c>
-      <c r="C197" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+      <c r="AJ200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH201" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B198" t="s">
+      <c r="AI201" t="s">
         <v>331</v>
       </c>
-      <c r="C198" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+      <c r="AJ201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH202" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B199" t="s">
+      <c r="AI202" t="s">
         <v>333</v>
       </c>
-      <c r="C199" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+      <c r="AJ202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH203" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B200" t="s">
+      <c r="AI203" t="s">
         <v>335</v>
       </c>
-      <c r="C200" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+      <c r="AJ203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH204" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B201" t="s">
+      <c r="AI204" t="s">
         <v>337</v>
       </c>
-      <c r="C201" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+      <c r="AJ204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH205" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B202" t="s">
+      <c r="AI205" t="s">
         <v>339</v>
       </c>
-      <c r="C202" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+      <c r="AJ205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH206" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B203" t="s">
+      <c r="AI206" t="s">
         <v>341</v>
       </c>
-      <c r="C203" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+      <c r="AJ206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH207" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B204" t="s">
+      <c r="AI207" t="s">
         <v>343</v>
       </c>
-      <c r="C204" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
+      <c r="AJ207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH208" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B205" t="s">
+      <c r="AI208" t="s">
         <v>345</v>
       </c>
-      <c r="C205" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
+      <c r="AJ208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH209" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B206" t="s">
+      <c r="AI209" t="s">
         <v>347</v>
       </c>
-      <c r="C206" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+      <c r="AJ209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH210" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B207" t="s">
+      <c r="AI210" t="s">
         <v>349</v>
       </c>
-      <c r="C207" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+      <c r="AJ210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH211" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B208" t="s">
+      <c r="AI211" t="s">
         <v>351</v>
       </c>
-      <c r="C208" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
+      <c r="AJ211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH212" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B209" t="s">
+      <c r="AI212" t="s">
         <v>353</v>
       </c>
-      <c r="C209" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
+      <c r="AJ212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH213" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B210" t="s">
+      <c r="AI213" t="s">
         <v>355</v>
       </c>
-      <c r="C210" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
+      <c r="AJ213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH214" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B211" t="s">
+      <c r="AI214" t="s">
         <v>355</v>
       </c>
-      <c r="C211" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
+      <c r="AJ214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH215" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B212" t="s">
+      <c r="AI215" t="s">
         <v>358</v>
       </c>
-      <c r="C212" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
+      <c r="AJ215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH216" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B213" t="s">
+      <c r="AI216" t="s">
         <v>360</v>
       </c>
-      <c r="C213" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
+      <c r="AJ216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH217" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B214" t="s">
+      <c r="AI217" t="s">
         <v>362</v>
       </c>
-      <c r="C214" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
+      <c r="AJ217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH218" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B215" t="s">
+      <c r="AI218" t="s">
         <v>364</v>
       </c>
-      <c r="C215" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
+      <c r="AJ218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH219" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B216" t="s">
+      <c r="AI219" t="s">
         <v>364</v>
       </c>
-      <c r="C216" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+      <c r="AJ219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH220" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B217" t="s">
+      <c r="AI220" t="s">
         <v>232</v>
       </c>
-      <c r="C217" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+      <c r="AJ220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH221" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B218" t="s">
+      <c r="AI221" t="s">
         <v>368</v>
       </c>
-      <c r="C218" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+      <c r="AJ221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH222" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B219" t="s">
+      <c r="AI222" t="s">
         <v>370</v>
       </c>
-      <c r="C219" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
+      <c r="AJ222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH223" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B220" t="s">
+      <c r="AI223" t="s">
         <v>372</v>
       </c>
-      <c r="C220" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
+      <c r="AJ223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH224" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B221" t="s">
+      <c r="AI224" t="s">
         <v>374</v>
       </c>
-      <c r="C221" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+      <c r="AJ224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH225" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B222" t="s">
+      <c r="AI225" t="s">
         <v>376</v>
       </c>
-      <c r="C222" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
+      <c r="AJ225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH226" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B223" t="s">
+      <c r="AI226" t="s">
         <v>378</v>
       </c>
-      <c r="C223" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
+      <c r="AJ226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH227" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B224" t="s">
+      <c r="AI227" t="s">
         <v>380</v>
       </c>
-      <c r="C224" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
+      <c r="AJ227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH228" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B225" t="s">
+      <c r="AI228" t="s">
         <v>380</v>
       </c>
-      <c r="C225" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+      <c r="AJ228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH229" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B226" t="s">
+      <c r="AI229" t="s">
         <v>383</v>
       </c>
-      <c r="C226" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
+      <c r="AJ229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH230" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B227" t="s">
+      <c r="AI230" t="s">
         <v>385</v>
       </c>
-      <c r="C227" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
+      <c r="AJ230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH231" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B228" t="s">
+      <c r="AI231" t="s">
         <v>387</v>
       </c>
-      <c r="C228" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+      <c r="AJ231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH232" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B229" t="s">
+      <c r="AI232" t="s">
         <v>389</v>
       </c>
-      <c r="C229" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
+      <c r="AJ232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH233" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B230" t="s">
+      <c r="AI233" t="s">
         <v>391</v>
       </c>
-      <c r="C230" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
+      <c r="AJ233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH234" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B231" t="s">
+      <c r="AI234" t="s">
         <v>391</v>
       </c>
-      <c r="C231" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+      <c r="AJ234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH235" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B232" t="s">
+      <c r="AI235" t="s">
         <v>394</v>
       </c>
-      <c r="C232" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+      <c r="AJ235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH236" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B233" t="s">
+      <c r="AI236" t="s">
         <v>396</v>
       </c>
-      <c r="C233" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+      <c r="AJ236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH237" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B234" t="s">
+      <c r="AI237" t="s">
         <v>398</v>
       </c>
-      <c r="C234" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
+      <c r="AJ237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH238" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B235" t="s">
+      <c r="AI238" t="s">
         <v>398</v>
       </c>
-      <c r="C235" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+      <c r="AJ238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH239" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B236" t="s">
+      <c r="AI239" t="s">
         <v>401</v>
       </c>
-      <c r="C236" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
+      <c r="AJ239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH240" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B237" t="s">
+      <c r="AI240" t="s">
         <v>403</v>
       </c>
-      <c r="C237" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
+      <c r="AJ240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH241" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B238" t="s">
+      <c r="AI241" t="s">
         <v>405</v>
       </c>
-      <c r="C238" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
+      <c r="AJ241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH242" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B239" t="s">
+      <c r="AI242" t="s">
         <v>405</v>
       </c>
-      <c r="C239" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
+      <c r="AJ242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH243" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B240" t="s">
+      <c r="AI243" t="s">
         <v>408</v>
       </c>
-      <c r="C240" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
+      <c r="AJ243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH244" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B241" t="s">
+      <c r="AI244" t="s">
         <v>410</v>
       </c>
-      <c r="C241" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
+      <c r="AJ244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH245" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B242" t="s">
+      <c r="AI245" t="s">
         <v>412</v>
       </c>
-      <c r="C242" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
+      <c r="AJ245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH246" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B243" t="s">
+      <c r="AI246" t="s">
         <v>414</v>
       </c>
-      <c r="C243" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
+      <c r="AJ246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH247" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B244" t="s">
+      <c r="AI247" t="s">
         <v>416</v>
       </c>
-      <c r="C244" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
+      <c r="AJ247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH248" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B245" t="s">
+      <c r="AI248" t="s">
         <v>416</v>
       </c>
-      <c r="C245" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
+      <c r="AJ248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH249" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B246" t="s">
+      <c r="AI249" t="s">
         <v>419</v>
       </c>
-      <c r="C246" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
+      <c r="AJ249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH250" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B247" t="s">
+      <c r="AI250" t="s">
         <v>421</v>
       </c>
-      <c r="C247" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
+      <c r="AJ250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH251" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B248" t="s">
+      <c r="AI251" t="s">
         <v>423</v>
       </c>
-      <c r="C248" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
+      <c r="AJ251" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH252" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B249" t="s">
+      <c r="AI252" t="s">
         <v>425</v>
       </c>
-      <c r="C249" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
+      <c r="AJ252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH253" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B250" t="s">
+      <c r="AI253" t="s">
         <v>427</v>
       </c>
-      <c r="C250" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
+      <c r="AJ253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH254" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B251" t="s">
+      <c r="AI254" t="s">
         <v>427</v>
       </c>
-      <c r="C251" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
+      <c r="AJ254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH255" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B252" t="s">
+      <c r="AI255" t="s">
         <v>427</v>
       </c>
-      <c r="C252" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
+      <c r="AJ255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH256" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B253" t="s">
+      <c r="AI256" t="s">
         <v>431</v>
       </c>
-      <c r="C253" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
+      <c r="AJ256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH257" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B254" t="s">
+      <c r="AI257" t="s">
         <v>433</v>
       </c>
-      <c r="C254" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
+      <c r="AJ257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH258" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B255" t="s">
+      <c r="AI258" t="s">
         <v>435</v>
       </c>
-      <c r="C255" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
+      <c r="AJ258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH259" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B256" t="s">
+      <c r="AI259" t="s">
         <v>437</v>
       </c>
-      <c r="C256" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
+      <c r="AJ259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH260" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B257" t="s">
+      <c r="AI260" t="s">
         <v>439</v>
       </c>
-      <c r="C257" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
+      <c r="AJ260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH261" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B258" t="s">
+      <c r="AI261" t="s">
         <v>439</v>
       </c>
-      <c r="C258" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+      <c r="AJ261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH262" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B259" t="s">
+      <c r="AI262" t="s">
         <v>439</v>
       </c>
-      <c r="C259" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+      <c r="AJ262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH263" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B260" t="s">
+      <c r="AI263" t="s">
         <v>443</v>
       </c>
-      <c r="C260" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+      <c r="AJ263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH264" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B261" t="s">
+      <c r="AI264" t="s">
         <v>333</v>
       </c>
-      <c r="C261" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
+      <c r="AJ264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH265" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B262" t="s">
+      <c r="AI265" t="s">
         <v>446</v>
       </c>
-      <c r="C262" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
+      <c r="AJ265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH266" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B263" t="s">
+      <c r="AI266" t="s">
         <v>448</v>
       </c>
-      <c r="C263" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
+      <c r="AJ266" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH267" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B264" t="s">
+      <c r="AI267" t="s">
         <v>450</v>
       </c>
-      <c r="C264" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
+      <c r="AJ267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH268" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B265" t="s">
+      <c r="AI268" t="s">
         <v>452</v>
       </c>
-      <c r="C265" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
+      <c r="AJ268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH269" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B266" t="s">
+      <c r="AI269" t="s">
         <v>452</v>
       </c>
-      <c r="C266" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
+      <c r="AJ269" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH270" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B267" t="s">
+      <c r="AI270" t="s">
         <v>455</v>
       </c>
-      <c r="C267" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
+      <c r="AJ270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH271" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B268" t="s">
+      <c r="AI271" t="s">
         <v>457</v>
       </c>
-      <c r="C268" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
+      <c r="AJ271" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH272" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B269" t="s">
+      <c r="AI272" t="s">
         <v>459</v>
       </c>
-      <c r="C269" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
+      <c r="AJ272" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH273" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B270" t="s">
+      <c r="AI273" t="s">
         <v>461</v>
       </c>
-      <c r="C270" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
+      <c r="AJ273" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH274" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B271" t="s">
+      <c r="AI274" t="s">
         <v>463</v>
       </c>
-      <c r="C271" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
+      <c r="AJ274" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH275" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B272" t="s">
+      <c r="AI275" t="s">
         <v>465</v>
       </c>
-      <c r="C272" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
+      <c r="AJ275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH276" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B273" t="s">
+      <c r="AI276" t="s">
         <v>465</v>
       </c>
-      <c r="C273" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
+      <c r="AJ276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH277" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B274" t="s">
+      <c r="AI277" t="s">
         <v>468</v>
       </c>
-      <c r="C274" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
+      <c r="AJ277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH278" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B275" t="s">
+      <c r="AI278" t="s">
         <v>470</v>
       </c>
-      <c r="C275" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
+      <c r="AJ278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH279" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B276" t="s">
+      <c r="AI279" t="s">
         <v>472</v>
       </c>
-      <c r="C276" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
+      <c r="AJ279" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH280" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B277" t="s">
+      <c r="AI280" t="s">
         <v>470</v>
       </c>
-      <c r="C277" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
+      <c r="AJ280" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH281" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B278" t="s">
+      <c r="AI281" t="s">
         <v>475</v>
       </c>
-      <c r="C278" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
+      <c r="AJ281" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH282" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B279" t="s">
+      <c r="AI282" t="s">
         <v>477</v>
       </c>
-      <c r="C279" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
+      <c r="AJ282" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH283" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B280" t="s">
+      <c r="AI283" t="s">
         <v>479</v>
       </c>
-      <c r="C280" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
+      <c r="AJ283" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH284" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B281" t="s">
+      <c r="AI284" t="s">
         <v>481</v>
       </c>
-      <c r="C281" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
+      <c r="AJ284" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH285" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B282" t="s">
+      <c r="AI285" t="s">
         <v>483</v>
       </c>
-      <c r="C282" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
+      <c r="AJ285" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH286" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B283" t="s">
+      <c r="AI286" t="s">
         <v>485</v>
       </c>
-      <c r="C283" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
+      <c r="AJ286" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH287" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B284" t="s">
+      <c r="AI287" t="s">
         <v>487</v>
       </c>
-      <c r="C284" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
+      <c r="AJ287" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH288" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B285" t="s">
+      <c r="AI288" t="s">
         <v>489</v>
       </c>
-      <c r="C285" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
+      <c r="AJ288" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH289" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B286" t="s">
+      <c r="AI289" t="s">
         <v>491</v>
       </c>
-      <c r="C286" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
+      <c r="AJ289" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH290" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B287" t="s">
+      <c r="AI290" t="s">
         <v>493</v>
       </c>
-      <c r="C287" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
+      <c r="AJ290" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH291" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B288" t="s">
+      <c r="AI291" t="s">
         <v>495</v>
       </c>
-      <c r="C288" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
+      <c r="AJ291" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH292" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B289" t="s">
+      <c r="AI292" t="s">
         <v>497</v>
       </c>
-      <c r="C289" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
+      <c r="AJ292" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH293" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B290" t="s">
+      <c r="AI293" t="s">
         <v>499</v>
       </c>
-      <c r="C290" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
+      <c r="AJ293" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH294" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B291" t="s">
+      <c r="AI294" t="s">
         <v>242</v>
       </c>
-      <c r="C291" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
+      <c r="AJ294" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH295" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B292" t="s">
+      <c r="AI295" t="s">
         <v>502</v>
       </c>
-      <c r="C292" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
+      <c r="AJ295" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH296" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B293" t="s">
+      <c r="AI296" t="s">
         <v>504</v>
       </c>
-      <c r="C293" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
+      <c r="AJ296" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH297" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B294" t="s">
+      <c r="AI297" t="s">
         <v>504</v>
       </c>
-      <c r="C294" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
+      <c r="AJ297" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH298" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B295" t="s">
+      <c r="AI298" t="s">
         <v>507</v>
       </c>
-      <c r="C295" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
+      <c r="AJ298" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH299" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B296" t="s">
+      <c r="AI299" t="s">
         <v>509</v>
       </c>
-      <c r="C296" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
+      <c r="AJ299" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH300" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B297" t="s">
+      <c r="AI300" t="s">
         <v>511</v>
       </c>
-      <c r="C297" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
+      <c r="AJ300" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH301" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B298" t="s">
+      <c r="AI301" t="s">
         <v>242</v>
       </c>
-      <c r="C298" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
+      <c r="AJ301" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH302" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B299" t="s">
+      <c r="AI302" t="s">
         <v>514</v>
       </c>
-      <c r="C299" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
+      <c r="AJ302" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH303" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B300" t="s">
+      <c r="AI303" t="s">
         <v>516</v>
       </c>
-      <c r="C300" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
+      <c r="AJ303" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH304" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B301" t="s">
+      <c r="AI304" t="s">
         <v>518</v>
       </c>
-      <c r="C301" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
+      <c r="AJ304" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH305" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B302" t="s">
+      <c r="AI305" t="s">
         <v>518</v>
       </c>
-      <c r="C302" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
+      <c r="AJ305" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH306" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B303" t="s">
+      <c r="AI306" t="s">
         <v>521</v>
       </c>
-      <c r="C303" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
+      <c r="AJ306" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH307" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B304" t="s">
+      <c r="AI307" t="s">
         <v>523</v>
       </c>
-      <c r="C304" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
+      <c r="AJ307" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH308" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B305" t="s">
+      <c r="AI308" t="s">
         <v>525</v>
       </c>
-      <c r="C305" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
+      <c r="AJ308" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH309" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B306" t="s">
+      <c r="AI309" t="s">
         <v>525</v>
       </c>
-      <c r="C306" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
+      <c r="AJ309" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH310" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B307" t="s">
+      <c r="AI310" t="s">
         <v>525</v>
       </c>
-      <c r="C307" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
+      <c r="AJ310" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH311" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B308" t="s">
+      <c r="AI311" t="s">
         <v>529</v>
       </c>
-      <c r="C308" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
+      <c r="AJ311" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH312" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B309" t="s">
+      <c r="AI312" t="s">
         <v>531</v>
       </c>
-      <c r="C309" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+      <c r="AJ312" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH313" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B310" t="s">
+      <c r="AI313" t="s">
         <v>531</v>
       </c>
-      <c r="C310" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
+      <c r="AJ313" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH314" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B311" t="s">
+      <c r="AI314" t="s">
         <v>534</v>
       </c>
-      <c r="C311" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
+      <c r="AJ314" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH315" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B312" t="s">
+      <c r="AI315" t="s">
         <v>536</v>
       </c>
-      <c r="C312" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
+      <c r="AJ315" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH316" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B313" t="s">
+      <c r="AI316" t="s">
         <v>538</v>
       </c>
-      <c r="C313" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
+      <c r="AJ316" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH317" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B314" t="s">
+      <c r="AI317" t="s">
         <v>540</v>
       </c>
-      <c r="C314" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
+      <c r="AJ317" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH318" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B315" t="s">
+      <c r="AI318" t="s">
         <v>540</v>
       </c>
-      <c r="C315" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
+      <c r="AJ318" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH319" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B316" t="s">
+      <c r="AI319" t="s">
         <v>543</v>
       </c>
-      <c r="C316" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
+      <c r="AJ319" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH320" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B317" t="s">
+      <c r="AI320" t="s">
         <v>538</v>
       </c>
-      <c r="C317" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
+      <c r="AJ320" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH321" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B318" t="s">
+      <c r="AI321" t="s">
         <v>538</v>
       </c>
-      <c r="C318" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
+      <c r="AJ321" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH322" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B319" t="s">
+      <c r="AI322" t="s">
         <v>547</v>
       </c>
-      <c r="C319" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
+      <c r="AJ322" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH323" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B320" t="s">
+      <c r="AI323" t="s">
         <v>549</v>
       </c>
-      <c r="C320" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
+      <c r="AJ323" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH324" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B321" t="s">
+      <c r="AI324" t="s">
         <v>551</v>
       </c>
-      <c r="C321" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
+      <c r="AJ324" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH325" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B322" t="s">
+      <c r="AI325" t="s">
         <v>553</v>
       </c>
-      <c r="C322" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
+      <c r="AJ325" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH326" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B323" t="s">
+      <c r="AI326" t="s">
         <v>495</v>
       </c>
-      <c r="C323" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
+      <c r="AJ326" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH327" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B324" t="s">
+      <c r="AI327" t="s">
         <v>556</v>
       </c>
-      <c r="C324" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
+      <c r="AJ327" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH328" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B325" t="s">
+      <c r="AI328" t="s">
         <v>558</v>
       </c>
-      <c r="C325" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
+      <c r="AJ328" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH329" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B326" t="s">
+      <c r="AI329" t="s">
         <v>558</v>
       </c>
-      <c r="C326" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
+      <c r="AJ329" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH330" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B327" t="s">
+      <c r="AI330" t="s">
         <v>561</v>
       </c>
-      <c r="C327" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
+      <c r="AJ330" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH331" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B328" t="s">
+      <c r="AI331" t="s">
         <v>563</v>
       </c>
-      <c r="C328" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
+      <c r="AJ331" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH332" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B329" t="s">
+      <c r="AI332" t="s">
         <v>565</v>
       </c>
-      <c r="C329" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
+      <c r="AJ332" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH333" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B330" t="s">
+      <c r="AI333" t="s">
         <v>567</v>
       </c>
-      <c r="C330" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
+      <c r="AJ333" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH334" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B331" t="s">
+      <c r="AI334" t="s">
         <v>567</v>
       </c>
-      <c r="C331" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
+      <c r="AJ334" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH335" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B332" t="s">
+      <c r="AI335" t="s">
         <v>570</v>
       </c>
-      <c r="C332" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
+      <c r="AJ335" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH336" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B333" t="s">
+      <c r="AI336" t="s">
         <v>572</v>
       </c>
-      <c r="C333" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
+      <c r="AJ336" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH337" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B334" t="s">
+      <c r="AI337" t="s">
         <v>572</v>
       </c>
-      <c r="C334" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
+      <c r="AJ337" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH338" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B335" t="s">
+      <c r="AI338" t="s">
         <v>575</v>
       </c>
-      <c r="C335" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
+      <c r="AJ338" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH339" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B336" t="s">
+      <c r="AI339" t="s">
         <v>575</v>
       </c>
-      <c r="C336" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
+      <c r="AJ339" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH340" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B337" t="s">
+      <c r="AI340" t="s">
         <v>578</v>
       </c>
-      <c r="C337" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
+      <c r="AJ340" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH341" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B338" t="s">
+      <c r="AI341" t="s">
         <v>578</v>
       </c>
-      <c r="C338" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
+      <c r="AJ341" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH342" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B339" t="s">
+      <c r="AI342" t="s">
         <v>581</v>
       </c>
-      <c r="C339" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
+      <c r="AJ342" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH343" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B340" t="s">
+      <c r="AI343" t="s">
         <v>583</v>
       </c>
-      <c r="C340" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
+      <c r="AJ343" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH344" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B341" t="s">
+      <c r="AI344" t="s">
         <v>585</v>
       </c>
-      <c r="C341" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
+      <c r="AJ344" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH345" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B342" t="s">
+      <c r="AI345" t="s">
         <v>587</v>
       </c>
-      <c r="C342" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
+      <c r="AJ345" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH346" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B343" t="s">
+      <c r="AI346" t="s">
         <v>589</v>
       </c>
-      <c r="C343" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
+      <c r="AJ346" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH347" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B344" t="s">
+      <c r="AI347" t="s">
         <v>591</v>
       </c>
-      <c r="C344" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
+      <c r="AJ347" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH348" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B345" t="s">
+      <c r="AI348" t="s">
         <v>509</v>
       </c>
-      <c r="C345" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
+      <c r="AJ348" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH349" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B346" t="s">
+      <c r="AI349" t="s">
         <v>594</v>
       </c>
-      <c r="C346" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
+      <c r="AJ349" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH350" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B347" t="s">
+      <c r="AI350" t="s">
         <v>596</v>
       </c>
-      <c r="C347" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
+      <c r="AJ350" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH351" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B348" t="s">
+      <c r="AI351" t="s">
         <v>598</v>
       </c>
-      <c r="C348" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
+      <c r="AJ351" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH352" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B349" t="s">
+      <c r="AI352" t="s">
         <v>600</v>
       </c>
-      <c r="C349" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
+      <c r="AJ352" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH353" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B350" t="s">
+      <c r="AI353" t="s">
         <v>602</v>
       </c>
-      <c r="C350" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
+      <c r="AJ353" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH354" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B351" t="s">
+      <c r="AI354" t="s">
         <v>604</v>
       </c>
-      <c r="C351" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
+      <c r="AJ354" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH355" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B352" t="s">
+      <c r="AI355" t="s">
         <v>606</v>
       </c>
-      <c r="C352" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
+      <c r="AJ355" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH356" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B353" t="s">
+      <c r="AI356" t="s">
         <v>608</v>
       </c>
-      <c r="C353" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
+      <c r="AJ356" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH357" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B354" t="s">
+      <c r="AI357" t="s">
         <v>610</v>
       </c>
-      <c r="C354" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
+      <c r="AJ357" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH358" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B355" t="s">
+      <c r="AI358" t="s">
         <v>612</v>
       </c>
-      <c r="C355" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
+      <c r="AJ358" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH359" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B356" t="s">
+      <c r="AI359" t="s">
         <v>614</v>
       </c>
-      <c r="C356" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
+      <c r="AJ359" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH360" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B357" t="s">
+      <c r="AI360" t="s">
         <v>616</v>
       </c>
-      <c r="C357" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
+      <c r="AJ360" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH361" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B358" t="s">
+      <c r="AI361" t="s">
         <v>618</v>
       </c>
-      <c r="C358" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
+      <c r="AJ361" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH362" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B359" t="s">
+      <c r="AI362" t="s">
         <v>620</v>
       </c>
-      <c r="C359" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
+      <c r="AJ362" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH363" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B360" t="s">
+      <c r="AI363" t="s">
         <v>622</v>
       </c>
-      <c r="C360" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
+      <c r="AJ363" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH364" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B361" t="s">
+      <c r="AI364" t="s">
         <v>624</v>
       </c>
-      <c r="C361" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
+      <c r="AJ364" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH365" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B362" t="s">
+      <c r="AI365" t="s">
         <v>626</v>
       </c>
-      <c r="C362" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
+      <c r="AJ365" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH366" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B363" t="s">
+      <c r="AI366" t="s">
         <v>628</v>
       </c>
-      <c r="C363" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
+      <c r="AJ366" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH367" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B364" t="s">
+      <c r="AI367" t="s">
         <v>630</v>
       </c>
-      <c r="C364" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
+      <c r="AJ367" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH368" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B365" t="s">
+      <c r="AI368" t="s">
         <v>632</v>
       </c>
-      <c r="C365" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="s">
+      <c r="AJ368" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH369" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B366" t="s">
+      <c r="AI369" t="s">
         <v>634</v>
       </c>
-      <c r="C366" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
+      <c r="AJ369" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH370" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B367" t="s">
+      <c r="AI370" t="s">
         <v>636</v>
       </c>
-      <c r="C367" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
+      <c r="AJ370" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH371" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B368" t="s">
+      <c r="AI371" t="s">
         <v>638</v>
       </c>
-      <c r="C368" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
+      <c r="AJ371" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH372" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B369" t="s">
+      <c r="AI372" t="s">
         <v>640</v>
       </c>
-      <c r="C369" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
+      <c r="AJ372" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH373" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B370" t="s">
+      <c r="AI373" t="s">
         <v>642</v>
       </c>
-      <c r="C370" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
+      <c r="AJ373" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH374" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B371" t="s">
+      <c r="AI374" t="s">
         <v>644</v>
       </c>
-      <c r="C371" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
+      <c r="AJ374" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH375" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B372" t="s">
+      <c r="AI375" t="s">
         <v>646</v>
       </c>
-      <c r="C372" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
+      <c r="AJ375" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH376" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B373" t="s">
+      <c r="AI376" t="s">
         <v>648</v>
       </c>
-      <c r="C373" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
+      <c r="AJ376" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH377" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B374" t="s">
+      <c r="AI377" t="s">
         <v>650</v>
       </c>
-      <c r="C374" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
+      <c r="AJ377" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH378" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B375" t="s">
+      <c r="AI378" t="s">
         <v>652</v>
       </c>
-      <c r="C375" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="s">
+      <c r="AJ378" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH379" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B376" t="s">
+      <c r="AI379" t="s">
         <v>654</v>
       </c>
-      <c r="C376" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
+      <c r="AJ379" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH380" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B377" t="s">
+      <c r="AI380" t="s">
         <v>656</v>
       </c>
-      <c r="C377" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
+      <c r="AJ380" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH381" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B378" t="s">
+      <c r="AI381" t="s">
         <v>658</v>
       </c>
-      <c r="C378" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
+      <c r="AJ381" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH382" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B379" t="s">
+      <c r="AI382" t="s">
         <v>660</v>
       </c>
-      <c r="C379" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
+      <c r="AJ382" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH383" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B380" t="s">
+      <c r="AI383" t="s">
         <v>662</v>
       </c>
-      <c r="C380" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="s">
+      <c r="AJ383" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH384" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B381" t="s">
+      <c r="AI384" t="s">
         <v>664</v>
       </c>
-      <c r="C381" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
+      <c r="AJ384" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH385" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="B382" t="s">
+      <c r="AI385" t="s">
         <v>666</v>
       </c>
-      <c r="C382" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="s">
+      <c r="AJ385" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH386" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B383" t="s">
+      <c r="AI386" t="s">
         <v>668</v>
       </c>
-      <c r="C383" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
+      <c r="AJ386" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH387" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B384" t="s">
+      <c r="AI387" t="s">
         <v>670</v>
       </c>
-      <c r="C384" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
+      <c r="AJ387" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH388" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B385" t="s">
+      <c r="AI388" t="s">
         <v>672</v>
       </c>
-      <c r="C385" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
+      <c r="AJ388" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH389" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B386" t="s">
+      <c r="AI389" t="s">
         <v>674</v>
       </c>
-      <c r="C386" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
+      <c r="AJ389" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH390" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B387" t="s">
+      <c r="AI390" t="s">
         <v>676</v>
       </c>
-      <c r="C387" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="s">
+      <c r="AJ390" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH391" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B388" t="s">
+      <c r="AI391" t="s">
         <v>678</v>
       </c>
-      <c r="C388" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="s">
+      <c r="AJ391" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH392" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B389" t="s">
+      <c r="AI392" t="s">
         <v>680</v>
       </c>
-      <c r="C389" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="s">
+      <c r="AJ392" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH393" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B390" t="s">
+      <c r="AI393" t="s">
         <v>682</v>
       </c>
-      <c r="C390" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="s">
+      <c r="AJ393" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH394" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B391" t="s">
+      <c r="AI394" t="s">
         <v>684</v>
       </c>
-      <c r="C391" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="1" t="s">
+      <c r="AJ394" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH395" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="B392" t="s">
+      <c r="AI395" t="s">
         <v>686</v>
       </c>
-      <c r="C392" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
+      <c r="AJ395" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH396" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B393" t="s">
+      <c r="AI396" t="s">
         <v>688</v>
       </c>
-      <c r="C393" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="s">
+      <c r="AJ396" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH397" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="B394" t="s">
+      <c r="AI397" t="s">
         <v>690</v>
       </c>
-      <c r="C394" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="1" t="s">
+      <c r="AJ397" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH398" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B395" t="s">
+      <c r="AI398" t="s">
         <v>692</v>
       </c>
-      <c r="C395" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="s">
+      <c r="AJ398" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH399" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B396" t="s">
+      <c r="AI399" t="s">
         <v>694</v>
       </c>
-      <c r="C396" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="1" t="s">
+      <c r="AJ399" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH400" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="B397" t="s">
+      <c r="AI400" t="s">
         <v>696</v>
       </c>
-      <c r="C397" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
+      <c r="AJ400" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH401" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B398" t="s">
+      <c r="AI401" t="s">
         <v>698</v>
       </c>
-      <c r="C398" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="s">
+      <c r="AJ401" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH402" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B399" t="s">
+      <c r="AI402" t="s">
         <v>700</v>
       </c>
-      <c r="C399" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="s">
+      <c r="AJ402" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH403" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="B400" t="s">
+      <c r="AI403" t="s">
         <v>702</v>
       </c>
-      <c r="C400" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
+      <c r="AJ403" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH404" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="B401" t="s">
+      <c r="AI404" t="s">
         <v>704</v>
       </c>
-      <c r="C401" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="s">
+      <c r="AJ404" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH405" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B402" t="s">
+      <c r="AI405" t="s">
         <v>764</v>
       </c>
-      <c r="C402" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" s="1" t="s">
+      <c r="AJ405" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH406" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B403" t="s">
+      <c r="AI406" t="s">
         <v>732</v>
       </c>
-      <c r="C403" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="1" t="s">
+      <c r="AJ406" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH407" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B404" t="s">
+      <c r="AI407" t="s">
         <v>706</v>
       </c>
-      <c r="C404" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="s">
+      <c r="AJ407" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH408" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B405" t="s">
+      <c r="AI408" t="s">
         <v>708</v>
       </c>
-      <c r="C405" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" s="1" t="s">
+      <c r="AJ408" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH409" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B406" t="s">
+      <c r="AI409" t="s">
         <v>710</v>
       </c>
-      <c r="C406" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="1" t="s">
+      <c r="AJ409" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH410" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B407" t="s">
+      <c r="AI410" t="s">
         <v>712</v>
       </c>
-      <c r="C407" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
+      <c r="AJ410" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH411" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="B408" t="s">
+      <c r="AI411" t="s">
         <v>714</v>
       </c>
-      <c r="C408" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="s">
+      <c r="AJ411" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH412" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="B409" t="s">
+      <c r="AI412" t="s">
         <v>716</v>
       </c>
-      <c r="C409" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="1" t="s">
+      <c r="AJ412" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH413" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B410" t="s">
+      <c r="AI413" t="s">
         <v>718</v>
       </c>
-      <c r="C410" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="s">
+      <c r="AJ413" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH414" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B411" t="s">
+      <c r="AI414" t="s">
         <v>720</v>
       </c>
-      <c r="C411" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="s">
+      <c r="AJ414" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH415" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B412" t="s">
+      <c r="AI415" t="s">
         <v>722</v>
       </c>
-      <c r="C412" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="1" t="s">
+      <c r="AJ415" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH416" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B413" t="s">
+      <c r="AI416" t="s">
         <v>724</v>
       </c>
-      <c r="C413" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="1" t="s">
+      <c r="AJ416" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH417" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B414" t="s">
+      <c r="AI417" t="s">
         <v>726</v>
       </c>
-      <c r="C414" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="1" t="s">
+      <c r="AJ417" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH418" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B415" t="s">
+      <c r="AI418" t="s">
         <v>728</v>
       </c>
-      <c r="C415" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" s="1" t="s">
+      <c r="AJ418" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH419" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B416" t="s">
+      <c r="AI419" t="s">
         <v>730</v>
       </c>
-      <c r="C416" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417" s="1" t="s">
+      <c r="AJ419" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH420" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B417" t="s">
+      <c r="AI420" t="s">
         <v>732</v>
       </c>
-      <c r="C417" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="1" t="s">
+      <c r="AJ420" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH421" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B418" t="s">
+      <c r="AI421" t="s">
         <v>734</v>
       </c>
-      <c r="C418" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" s="1" t="s">
+      <c r="AJ421" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH422" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B419" t="s">
+      <c r="AI422" t="s">
         <v>736</v>
       </c>
-      <c r="C419" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" s="1" t="s">
+      <c r="AJ422" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH423" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="B420" t="s">
+      <c r="AI423" t="s">
         <v>738</v>
       </c>
-      <c r="C420" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421" s="1" t="s">
+      <c r="AJ423" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH424" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="B421" t="s">
+      <c r="AI424" t="s">
         <v>740</v>
       </c>
-      <c r="C421" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A422" s="1" t="s">
+      <c r="AJ424" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH425" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="B422" t="s">
+      <c r="AI425" t="s">
         <v>742</v>
       </c>
-      <c r="C422" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423" s="1" t="s">
+      <c r="AJ425" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH426" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B423" t="s">
+      <c r="AI426" t="s">
         <v>744</v>
       </c>
-      <c r="C423" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="1" t="s">
+      <c r="AJ426" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH427" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B424" t="s">
+      <c r="AI427" t="s">
         <v>746</v>
       </c>
-      <c r="C424" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425" s="1" t="s">
+      <c r="AJ427" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH428" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B425" t="s">
+      <c r="AI428" t="s">
         <v>748</v>
       </c>
-      <c r="C425" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="1" t="s">
+      <c r="AJ428" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH429" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="B426" t="s">
+      <c r="AI429" t="s">
         <v>750</v>
       </c>
-      <c r="C426" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" s="1" t="s">
+      <c r="AJ429" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH430" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B427" t="s">
+      <c r="AI430" t="s">
         <v>416</v>
       </c>
-      <c r="C427" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428" s="1" t="s">
+      <c r="AJ430" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH431" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B428" t="s">
+      <c r="AI431" t="s">
         <v>752</v>
       </c>
-      <c r="C428" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" s="1" t="s">
+      <c r="AJ431" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH432" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B429" t="s">
+      <c r="AI432" t="s">
         <v>754</v>
       </c>
-      <c r="C429" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="1" t="s">
+      <c r="AJ432" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH433" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B430" t="s">
+      <c r="AI433" t="s">
         <v>756</v>
       </c>
-      <c r="C430" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="1" t="s">
+      <c r="AJ433" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH434" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B431" t="s">
+      <c r="AI434" t="s">
         <v>758</v>
       </c>
-      <c r="C431" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432" s="1" t="s">
+      <c r="AJ434" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH435" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B432" t="s">
+      <c r="AI435" t="s">
         <v>760</v>
       </c>
-      <c r="C432" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
+      <c r="AJ435" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH436" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B433" t="s">
+      <c r="AI436" t="s">
         <v>762</v>
       </c>
-      <c r="C433" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434" s="1" t="s">
+      <c r="AJ436" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH437" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B434" t="s">
+      <c r="AI437" t="s">
         <v>764</v>
       </c>
-      <c r="C434" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" s="1" t="s">
+      <c r="AJ437" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH438" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B435" t="s">
+      <c r="AI438" t="s">
         <v>766</v>
       </c>
-      <c r="C435" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A436" s="1" t="s">
+      <c r="AJ438" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH439" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B436" t="s">
+      <c r="AI439" t="s">
         <v>768</v>
       </c>
-      <c r="C436" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" s="1" t="s">
+      <c r="AJ439" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH440" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="B437" t="s">
+      <c r="AI440" t="s">
         <v>770</v>
       </c>
-      <c r="C437" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="1" t="s">
+      <c r="AJ440" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH441" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B438" t="s">
+      <c r="AI441" t="s">
         <v>772</v>
       </c>
-      <c r="C438" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A439" s="1" t="s">
+      <c r="AJ441" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH442" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B439" t="s">
+      <c r="AI442" t="s">
         <v>774</v>
       </c>
-      <c r="C439" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" s="1" t="s">
+      <c r="AJ442" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH443" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="B440" t="s">
+      <c r="AI443" t="s">
         <v>776</v>
       </c>
-      <c r="C440" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="s">
+      <c r="AJ443" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH444" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B441" t="s">
+      <c r="AI444" t="s">
         <v>778</v>
       </c>
-      <c r="C441" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442" s="1" t="s">
+      <c r="AJ444" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH445" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="B442" t="s">
+      <c r="AI445" t="s">
         <v>780</v>
       </c>
-      <c r="C442" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A443" s="1" t="s">
+      <c r="AJ445" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH446" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B443" t="s">
+      <c r="AI446" t="s">
         <v>782</v>
       </c>
-      <c r="C443" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444" s="1" t="s">
+      <c r="AJ446" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH447" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B444" t="s">
+      <c r="AI447" t="s">
         <v>784</v>
       </c>
-      <c r="C444" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A445" s="1" t="s">
+      <c r="AJ447" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH448" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B445" t="s">
+      <c r="AI448" t="s">
         <v>786</v>
       </c>
-      <c r="C445" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446" s="1" t="s">
+      <c r="AJ448" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH449" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="B446" t="s">
+      <c r="AI449" t="s">
         <v>788</v>
       </c>
-      <c r="C446" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447" s="1" t="s">
+      <c r="AJ449" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH450" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="B447" t="s">
+      <c r="AI450" t="s">
         <v>790</v>
       </c>
-      <c r="C447" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" s="1" t="s">
+      <c r="AJ450" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH451" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="B448" t="s">
+      <c r="AI451" t="s">
         <v>792</v>
       </c>
-      <c r="C448" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A449" s="1" t="s">
+      <c r="AJ451" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH452" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="B449" t="s">
+      <c r="AI452" t="s">
         <v>794</v>
       </c>
-      <c r="C449" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450" s="1" t="s">
+      <c r="AJ452" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH453" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="B450" t="s">
+      <c r="AI453" t="s">
         <v>796</v>
       </c>
-      <c r="C450" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="1" t="s">
+      <c r="AJ453" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH454" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B451" t="s">
+      <c r="AI454" t="s">
         <v>416</v>
       </c>
-      <c r="C451" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="1" t="s">
+      <c r="AJ454" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH455" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="B452" t="s">
+      <c r="AI455" t="s">
         <v>798</v>
       </c>
-      <c r="C452" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="1" t="s">
+      <c r="AJ455" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH456" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="B453" t="s">
+      <c r="AI456" t="s">
         <v>800</v>
       </c>
-      <c r="C453" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A454" s="1" t="s">
+      <c r="AJ456" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH457" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B454" t="s">
+      <c r="AI457" t="s">
         <v>802</v>
       </c>
-      <c r="C454" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A455" s="1" t="s">
+      <c r="AJ457" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH458" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="B455" t="s">
+      <c r="AI458" t="s">
         <v>804</v>
       </c>
-      <c r="C455" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456" s="1" t="s">
+      <c r="AJ458" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH459" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B456" t="s">
+      <c r="AI459" t="s">
         <v>806</v>
       </c>
-      <c r="C456" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="1" t="s">
+      <c r="AJ459" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH460" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="B457" t="s">
+      <c r="AI460" t="s">
         <v>808</v>
       </c>
-      <c r="C457" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A458" s="1" t="s">
+      <c r="AJ460" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH461" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="B458" t="s">
+      <c r="AI461" t="s">
         <v>810</v>
       </c>
-      <c r="C458" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" s="1" t="s">
+      <c r="AJ461" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH462" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="B459" t="s">
+      <c r="AI462" t="s">
         <v>812</v>
       </c>
-      <c r="C459" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A460" s="1" t="s">
+      <c r="AJ462" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH463" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="B460" t="s">
+      <c r="AI463" t="s">
         <v>814</v>
       </c>
-      <c r="C460" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A461" s="1" t="s">
+      <c r="AJ463" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH464" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="B461" t="s">
+      <c r="AI464" t="s">
         <v>816</v>
       </c>
-      <c r="C461" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" s="1" t="s">
+      <c r="AJ464" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH465" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="B462" t="s">
+      <c r="AI465" t="s">
         <v>818</v>
       </c>
-      <c r="C462" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" s="1" t="s">
+      <c r="AJ465" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH466" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="B463" t="s">
+      <c r="AI466" t="s">
         <v>820</v>
       </c>
-      <c r="C463" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464" s="1" t="s">
+      <c r="AJ466" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH467" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="B464" t="s">
+      <c r="AI467" t="s">
         <v>822</v>
       </c>
-      <c r="C464" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A465" s="1" t="s">
+      <c r="AJ467" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH468" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="B465" t="s">
+      <c r="AI468" t="s">
         <v>824</v>
       </c>
-      <c r="C465" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A466" s="1" t="s">
+      <c r="AJ468" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH469" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="B466" t="s">
+      <c r="AI469" t="s">
         <v>826</v>
       </c>
-      <c r="C466" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A467" s="1" t="s">
+      <c r="AJ469" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH470" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="B467" t="s">
+      <c r="AI470" t="s">
         <v>828</v>
       </c>
-      <c r="C467" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468" s="1" t="s">
+      <c r="AJ470" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH471" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B468" t="s">
+      <c r="AI471" t="s">
         <v>830</v>
       </c>
-      <c r="C468" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A469" s="1" t="s">
+      <c r="AJ471" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH472" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B469" t="s">
+      <c r="AI472" t="s">
         <v>832</v>
       </c>
-      <c r="C469" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470" s="1" t="s">
+      <c r="AJ472" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH473" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B470" t="s">
+      <c r="AI473" t="s">
         <v>834</v>
       </c>
-      <c r="C470" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A471" s="1" t="s">
+      <c r="AJ473" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="34:36" x14ac:dyDescent="0.25">
+      <c r="AH474" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B471" t="s">
+      <c r="AI474" t="s">
         <v>416</v>
       </c>
-      <c r="C471" s="1">
+      <c r="AJ474" s="1">
         <v>0</v>
       </c>
     </row>
